--- a/RNN/Data/reduced_training_data.xlsx
+++ b/RNN/Data/reduced_training_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775249FA-8DFE-4D8B-B51E-03C36C1657B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42195CA-88E5-4238-B283-CACDF3E7C2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
